--- a/data/Data-IEEE-24-build.xlsx
+++ b/data/Data-IEEE-24-build.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/LogicBenders/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22017\Documents\GitHub\LogicBenders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65C7BB-64BE-3F4D-A587-9E11E6101304}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19116" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系统" sheetId="10" r:id="rId1"/>
@@ -156,13 +155,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,16 +504,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>21</v>
@@ -523,7 +522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -534,7 +533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -552,19 +551,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -581,7 +580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -599,7 +598,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -617,7 +616,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -635,7 +634,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -653,7 +652,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -671,7 +670,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -689,7 +688,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -707,7 +706,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -725,7 +724,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -743,7 +742,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -761,7 +760,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -779,7 +778,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -797,7 +796,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -815,7 +814,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -833,7 +832,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -851,7 +850,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -869,7 +868,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -887,7 +886,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -905,7 +904,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -923,7 +922,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -941,7 +940,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -959,7 +958,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -977,7 +976,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -995,7 +994,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -1021,16 +1020,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1057,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1086,7 +1085,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1114,7 +1113,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1142,7 +1141,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1170,7 +1169,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1198,7 +1197,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1226,7 +1225,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1254,7 +1253,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1282,7 +1281,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1310,7 +1309,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1338,7 +1337,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1366,7 +1365,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1394,7 +1393,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1422,7 +1421,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1450,7 +1449,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1478,7 +1477,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1506,7 +1505,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1534,7 +1533,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1562,7 +1561,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1590,7 +1589,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1618,7 +1617,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1646,7 +1645,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1674,7 +1673,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1702,7 +1701,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1730,7 +1729,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1758,7 +1757,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1786,7 +1785,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1814,7 +1813,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1842,7 +1841,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1870,7 +1869,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1898,7 +1897,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1926,7 +1925,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1954,7 +1953,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1982,7 +1981,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -1994,16 +1993,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2018,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2035,7 +2034,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2051,7 +2050,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>1090000</v>
@@ -2067,7 +2066,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>1130000</v>
@@ -2091,16 +2090,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2260,16 +2259,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2429,43 +2428,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="121" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="130" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="152" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="191" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="192" max="213" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="222" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="245" max="253" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="254" max="283" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="305" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="306" max="314" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="315" max="335" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="336" max="344" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="345" max="366" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="60" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="91" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="121" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="152" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="182" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="191" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="213" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="214" max="222" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="223" max="244" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="245" max="253" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="254" max="283" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="284" max="305" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="306" max="314" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="315" max="335" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="336" max="344" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="345" max="366" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2474,7 +2473,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2484,7 +2483,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0.5</v>
       </c>
@@ -2494,151 +2493,151 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2652,43 +2651,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="121" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="130" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="152" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="191" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="192" max="213" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="222" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="245" max="253" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="254" max="283" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="305" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="306" max="314" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="315" max="335" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="336" max="344" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="345" max="366" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="60" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="91" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="121" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="152" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="182" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="191" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="213" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="214" max="222" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="223" max="244" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="245" max="253" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="254" max="283" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="284" max="305" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="306" max="314" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="315" max="335" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="336" max="344" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="345" max="366" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2697,7 +2696,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2707,7 +2706,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0.5</v>
       </c>
@@ -2718,152 +2717,152 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2878,43 +2877,43 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="121" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="130" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="152" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="191" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="192" max="213" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="222" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="245" max="253" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="254" max="283" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="305" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="306" max="314" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="315" max="335" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="336" max="344" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="345" max="366" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="60" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="91" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="121" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="152" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="182" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="191" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="213" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="214" max="222" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="223" max="244" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="245" max="253" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="254" max="283" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="284" max="305" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="306" max="314" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="315" max="335" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="336" max="344" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="345" max="366" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2923,7 +2922,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2933,7 +2932,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0.5</v>
       </c>
@@ -2944,152 +2943,152 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>

--- a/data/Data-IEEE-24-build.xlsx
+++ b/data/Data-IEEE-24-build.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22017\Documents\GitHub\LogicBenders\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/LogicBenders/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3480C00-8213-6443-94FF-15AF786FA2CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19116" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统" sheetId="10" r:id="rId1"/>
@@ -155,13 +156,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,16 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>21</v>
@@ -522,7 +523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -533,7 +534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -551,19 +552,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="7"/>
+    <col min="1" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -580,7 +581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -598,7 +599,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -616,7 +617,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -634,7 +635,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -652,7 +653,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -670,7 +671,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -688,7 +689,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -706,7 +707,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -724,7 +725,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -742,7 +743,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -760,7 +761,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -778,7 +779,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -796,7 +797,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -814,7 +815,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -832,7 +833,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -850,7 +851,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -868,7 +869,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -886,7 +887,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -904,7 +905,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -922,7 +923,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -940,7 +941,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -958,7 +959,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -976,7 +977,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -994,7 +995,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -1020,16 +1021,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1058,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1076,8 +1077,8 @@
       <c r="F2" s="5">
         <v>1.0516000000000001</v>
       </c>
-      <c r="G2" s="1">
-        <v>10.220000000000001</v>
+      <c r="G2" s="7">
+        <v>6.28</v>
       </c>
       <c r="H2" s="1">
         <v>42108</v>
@@ -1085,7 +1086,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>0.81259999999999999</v>
       </c>
       <c r="G3" s="7">
-        <v>10.220000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="H3" s="1">
         <v>32538</v>
@@ -1113,7 +1114,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>1.2906</v>
       </c>
       <c r="G4" s="7">
-        <v>10.220000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="H4" s="1">
         <v>51678</v>
@@ -1141,7 +1142,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>0.9081999999999999</v>
       </c>
       <c r="G5" s="7">
-        <v>10.220000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="H5" s="1">
         <v>36366</v>
@@ -1169,7 +1170,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1197,7 +1198,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1225,7 +1226,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1253,7 +1254,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1281,7 +1282,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1309,7 +1310,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1337,7 +1338,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1365,7 +1366,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1393,7 +1394,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1421,7 +1422,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1449,7 +1450,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1477,7 +1478,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1505,7 +1506,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1533,7 +1534,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1561,7 +1562,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1589,7 +1590,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1617,7 +1618,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1645,7 +1646,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1673,7 +1674,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1701,7 +1702,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1729,7 +1730,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1757,7 +1758,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1785,7 +1786,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1813,7 +1814,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1869,7 +1870,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1897,7 +1898,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1925,7 +1926,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1953,7 +1954,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1981,7 +1982,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -1993,16 +1994,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2019,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2034,7 +2035,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2050,7 +2051,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2066,7 +2067,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2090,16 +2091,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2259,16 +2260,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2428,43 +2429,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="60" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="91" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="121" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="130" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="131" max="152" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="162" max="182" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="183" max="191" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="213" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="214" max="222" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="223" max="244" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="245" max="253" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="254" max="283" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="284" max="305" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="306" max="314" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="315" max="335" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="336" max="344" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="345" max="366" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="121" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="152" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="183" max="191" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="192" max="213" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="214" max="222" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="223" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="245" max="253" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="254" max="283" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="284" max="305" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="306" max="314" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="315" max="335" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="336" max="344" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="345" max="366" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2473,7 +2474,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2483,7 +2484,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>0.5</v>
       </c>
@@ -2493,151 +2494,151 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2651,43 +2652,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="60" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="91" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="121" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="130" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="131" max="152" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="162" max="182" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="183" max="191" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="213" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="214" max="222" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="223" max="244" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="245" max="253" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="254" max="283" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="284" max="305" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="306" max="314" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="315" max="335" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="336" max="344" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="345" max="366" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="121" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="152" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="183" max="191" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="192" max="213" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="214" max="222" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="223" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="245" max="253" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="254" max="283" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="284" max="305" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="306" max="314" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="315" max="335" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="336" max="344" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="345" max="366" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2696,7 +2697,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2706,7 +2707,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>0.5</v>
       </c>
@@ -2717,152 +2718,152 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2877,43 +2878,43 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="60" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="91" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="121" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="130" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="131" max="152" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="162" max="182" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="183" max="191" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="213" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="214" max="222" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="223" max="244" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="245" max="253" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="254" max="283" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="284" max="305" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="306" max="314" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="315" max="335" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="336" max="344" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="345" max="366" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="121" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="152" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="183" max="191" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="192" max="213" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="214" max="222" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="223" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="245" max="253" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="254" max="283" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="284" max="305" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="306" max="314" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="315" max="335" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="336" max="344" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="345" max="366" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2922,7 +2923,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2932,7 +2933,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>0.5</v>
       </c>
@@ -2943,152 +2944,152 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>

--- a/data/Data-IEEE-24-build.xlsx
+++ b/data/Data-IEEE-24-build.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/LogicBenders/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22017\Documents\GitHub\LogicBenders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3480C00-8213-6443-94FF-15AF786FA2CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19116" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统" sheetId="10" r:id="rId1"/>
@@ -156,13 +155,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,16 +504,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>21</v>
@@ -523,7 +522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -534,7 +533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -552,19 +551,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -581,7 +580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -599,7 +598,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -617,7 +616,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -635,7 +634,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -653,7 +652,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -671,7 +670,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -689,7 +688,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -707,7 +706,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -725,7 +724,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -743,7 +742,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -761,7 +760,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -779,7 +778,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -797,7 +796,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -815,7 +814,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -833,7 +832,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -851,7 +850,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -869,7 +868,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -887,7 +886,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -905,7 +904,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -923,7 +922,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -941,7 +940,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -959,7 +958,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -977,7 +976,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -995,7 +994,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -1021,16 +1020,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1057,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>1.0516000000000001</v>
       </c>
       <c r="G2" s="7">
-        <v>6.28</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="H2" s="1">
         <v>42108</v>
@@ -1086,7 +1085,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>0.81259999999999999</v>
       </c>
       <c r="G3" s="7">
-        <v>6.28</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="H3" s="1">
         <v>32538</v>
@@ -1114,7 +1113,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>1.2906</v>
       </c>
       <c r="G4" s="7">
-        <v>6.28</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="H4" s="1">
         <v>51678</v>
@@ -1142,7 +1141,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>0.9081999999999999</v>
       </c>
       <c r="G5" s="7">
-        <v>6.28</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="H5" s="1">
         <v>36366</v>
@@ -1170,7 +1169,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1198,7 +1197,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1226,7 +1225,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1254,7 +1253,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1282,7 +1281,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1310,7 +1309,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1338,7 +1337,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1366,7 +1365,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1394,7 +1393,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1422,7 +1421,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1450,7 +1449,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1478,7 +1477,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1506,7 +1505,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1534,7 +1533,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1562,7 +1561,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1590,7 +1589,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1618,7 +1617,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1646,7 +1645,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1674,7 +1673,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1702,7 +1701,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1730,7 +1729,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1758,7 +1757,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1786,7 +1785,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1814,7 +1813,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1842,7 +1841,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1870,7 +1869,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1898,7 +1897,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1926,7 +1925,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1954,7 +1953,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1982,7 +1981,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -1994,16 +1993,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2018,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2035,7 +2034,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2051,7 +2050,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2067,7 +2066,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2091,16 +2090,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2260,16 +2259,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2429,43 +2428,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="121" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="130" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="152" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="191" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="192" max="213" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="222" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="245" max="253" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="254" max="283" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="305" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="306" max="314" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="315" max="335" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="336" max="344" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="345" max="366" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="60" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="91" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="121" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="152" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="182" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="191" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="213" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="214" max="222" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="223" max="244" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="245" max="253" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="254" max="283" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="284" max="305" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="306" max="314" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="315" max="335" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="336" max="344" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="345" max="366" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2474,7 +2473,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2484,7 +2483,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0.5</v>
       </c>
@@ -2494,151 +2493,151 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2652,43 +2651,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="121" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="130" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="152" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="191" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="192" max="213" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="222" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="245" max="253" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="254" max="283" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="305" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="306" max="314" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="315" max="335" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="336" max="344" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="345" max="366" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="60" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="91" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="121" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="152" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="182" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="191" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="213" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="214" max="222" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="223" max="244" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="245" max="253" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="254" max="283" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="284" max="305" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="306" max="314" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="315" max="335" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="336" max="344" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="345" max="366" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2697,7 +2696,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2707,7 +2706,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0.5</v>
       </c>
@@ -2718,152 +2717,152 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2878,43 +2877,43 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="91" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="100" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="121" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="130" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="152" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="191" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="192" max="213" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="222" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="244" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="245" max="253" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="254" max="283" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="305" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="306" max="314" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="315" max="335" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="336" max="344" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="345" max="366" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="60" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="91" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="121" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="130" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="152" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="182" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="191" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="213" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="214" max="222" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="223" max="244" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="245" max="253" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="254" max="283" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="284" max="305" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="306" max="314" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="315" max="335" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="336" max="344" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="345" max="366" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -2923,7 +2922,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2933,7 +2932,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0.5</v>
       </c>
@@ -2944,152 +2943,152 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>

--- a/data/Data-IEEE-24-build.xlsx
+++ b/data/Data-IEEE-24-build.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19116" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19116" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系统" sheetId="10" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1996,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>1050000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2045,7 +2045,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>1050000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="7"/>

--- a/data/Data-IEEE-24-build.xlsx
+++ b/data/Data-IEEE-24-build.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19116" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19116" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统" sheetId="10" r:id="rId1"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,7 @@
         <v>6.28</v>
       </c>
       <c r="H6" s="1">
-        <v>55567</v>
+        <v>55566.600000000006</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="7"/>
@@ -1208,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="6">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="E7" s="5">
         <v>0.36959999999999998</v>
@@ -1220,7 +1220,7 @@
         <v>6.28</v>
       </c>
       <c r="H7" s="1">
-        <v>30036</v>
+        <v>30286.3</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="7"/>
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="6">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="E8" s="5">
         <v>0.36959999999999998</v>
@@ -1248,7 +1248,7 @@
         <v>6.28</v>
       </c>
       <c r="H8" s="1">
-        <v>30036</v>
+        <v>30786.899999999998</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="7"/>
@@ -1292,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E10" s="5">
         <v>0.33880000000000005</v>
@@ -1304,7 +1304,7 @@
         <v>6.28</v>
       </c>
       <c r="H10" s="1">
-        <v>27533.000000000004</v>
+        <v>28534.199999999997</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="7"/>
@@ -1320,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="E11" s="5">
         <v>0.33880000000000005</v>
@@ -1332,7 +1332,7 @@
         <v>6.28</v>
       </c>
       <c r="H11" s="1">
-        <v>27533.000000000004</v>
+        <v>29285.1</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="7"/>
@@ -1376,7 +1376,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="6">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="E13" s="5">
         <v>0.36959999999999998</v>
@@ -1388,7 +1388,7 @@
         <v>6.28</v>
       </c>
       <c r="H13" s="1">
-        <v>30036</v>
+        <v>30536.6</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="7"/>
@@ -1432,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="6">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="E15" s="5">
         <v>0.36959999999999998</v>
@@ -1444,7 +1444,7 @@
         <v>6.28</v>
       </c>
       <c r="H15" s="1">
-        <v>30036</v>
+        <v>31287.5</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="7"/>
@@ -1572,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="6">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="E20" s="5">
         <v>0.36959999999999998</v>
@@ -1584,7 +1584,7 @@
         <v>6.28</v>
       </c>
       <c r="H20" s="1">
-        <v>30036</v>
+        <v>31788.100000000002</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="7"/>
@@ -1600,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E21" s="5">
         <v>0.67760000000000009</v>
@@ -1612,7 +1612,7 @@
         <v>6.28</v>
       </c>
       <c r="H21" s="1">
-        <v>55066.000000000007</v>
+        <v>56567.799999999996</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="7"/>
@@ -1628,7 +1628,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="6">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E22" s="5">
         <v>0.61599999999999999</v>
@@ -1640,7 +1640,7 @@
         <v>6.28</v>
       </c>
       <c r="H22" s="1">
-        <v>50060</v>
+        <v>50810.899999999994</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="7"/>
@@ -1684,7 +1684,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="6">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="E24" s="5">
         <v>0.36959999999999998</v>
@@ -1696,7 +1696,7 @@
         <v>6.28</v>
       </c>
       <c r="H24" s="1">
-        <v>30036</v>
+        <v>32038.400000000001</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="7"/>
@@ -1740,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="6">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="E26" s="5">
         <v>0.49280000000000002</v>
@@ -1752,7 +1752,7 @@
         <v>6.28</v>
       </c>
       <c r="H26" s="1">
-        <v>40048</v>
+        <v>40798.899999999994</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="7"/>
@@ -1796,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="6">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="E28" s="5">
         <v>0.49280000000000002</v>
@@ -1808,7 +1808,7 @@
         <v>6.28</v>
       </c>
       <c r="H28" s="1">
-        <v>40048</v>
+        <v>41299.5</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="7"/>
@@ -1852,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="6">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="E30" s="5">
         <v>0.36959999999999998</v>
@@ -1864,7 +1864,7 @@
         <v>6.28</v>
       </c>
       <c r="H30" s="1">
-        <v>30036</v>
+        <v>32288.7</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="7"/>
@@ -1936,7 +1936,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="6">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="E33" s="5">
         <v>0.46199999999999997</v>
@@ -1948,7 +1948,7 @@
         <v>6.28</v>
       </c>
       <c r="H33" s="1">
-        <v>37545</v>
+        <v>38295.9</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="7"/>
@@ -1964,7 +1964,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E34" s="5">
         <v>0.2772</v>
@@ -1976,7 +1976,7 @@
         <v>6.28</v>
       </c>
       <c r="H34" s="1">
-        <v>22527</v>
+        <v>23778.5</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="7"/>
@@ -1996,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
